--- a/paginas/evaluacion_desempeno/evaluacion_desempeno.xlsx
+++ b/paginas/evaluacion_desempeno/evaluacion_desempeno.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>NOMBRE COMPLETO</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>ACREDITADO</t>
+  </si>
+  <si>
+    <t>TREJO TREJO JORGE ALBERTO</t>
+  </si>
+  <si>
+    <t>TETJ630430H214251770</t>
+  </si>
+  <si>
+    <t>MALO</t>
   </si>
 </sst>
 </file>
@@ -392,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +464,29 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>309796</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
